--- a/Opti/Datos/Demanda_comida.xlsx
+++ b/Opti/Datos/Demanda_comida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/gaalfaro_uc_cl/Documents/Proyecto OPTI/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/nico_lavandero2004_uc_cl/Documents/Opti/Progra/Opti/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F557ABD-FF0F-48DC-98DA-3599A26551B3}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BEC3B3-4BF2-4318-AEBB-71EAC02B1E46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region 16" sheetId="10" r:id="rId1"/>
@@ -131,6 +131,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87504A2-056E-48C9-93E9-E5D188B0A148}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,180 +476,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7161.5249999999996</v>
+        <v>10230.75</v>
       </c>
       <c r="C2" s="4">
-        <v>35807.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51153.75</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10230.75</v>
+        <v>33976.5</v>
       </c>
       <c r="C3" s="4">
-        <v>51153.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169882.5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>33976.5</v>
+        <v>16988.25</v>
       </c>
       <c r="C4" s="4">
-        <v>169882.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84941.25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>16988.25</v>
+        <v>23133</v>
       </c>
       <c r="C5" s="4">
-        <v>84941.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115665</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>23133</v>
+        <v>47292</v>
       </c>
       <c r="C6" s="4">
-        <v>115665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236460</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>47292</v>
+        <v>36400.5</v>
       </c>
       <c r="C7" s="4">
-        <v>236460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182002.5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>141220.5</v>
+        <v>51846</v>
       </c>
       <c r="C8" s="4">
-        <v>706102.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259230</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>36400.5</v>
+        <v>49109.25</v>
       </c>
       <c r="C9" s="4">
-        <v>182002.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245546.25</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>51846</v>
+        <v>31101</v>
       </c>
       <c r="C10" s="4">
         <v>259230</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>29856.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>149283.75</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4385.25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21926.25</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6708.75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>33543.75</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>141220.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>706102.5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15780.75</v>
+      </c>
+      <c r="C15" s="4">
+        <v>78903.75</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7161.5249999999996</v>
+      </c>
+      <c r="C16" s="4">
+        <v>35807.625</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B17" s="2">
         <v>19631.25</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C17" s="4">
         <v>98156.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>49109.25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>245546.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>31101</v>
-      </c>
-      <c r="C13" s="4">
-        <v>155505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>15780.75</v>
-      </c>
-      <c r="C14" s="4">
-        <v>78903.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>29856.75</v>
-      </c>
-      <c r="C15" s="4">
-        <v>149283.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4385.25</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21926.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6708.75</v>
-      </c>
-      <c r="C17" s="4">
-        <v>33543.75</v>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>524822.02500000002</v>
       </c>
     </row>
   </sheetData>

--- a/Opti/Datos/Demanda_comida.xlsx
+++ b/Opti/Datos/Demanda_comida.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/nico_lavandero2004_uc_cl/Documents/Opti/Progra/Opti/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comma\Avanzada\Apuntes\Resumenes-Avanzada\Opti\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BEC3B3-4BF2-4318-AEBB-71EAC02B1E46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C99995D-9CE4-4250-A527-F1CF56371376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Region 16" sheetId="10" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,43 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Demanda semana</t>
-  </si>
-  <si>
-    <t>alumnosx2</t>
+    <t>Alumnos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -91,31 +73,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,10 +94,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,244 +412,2807 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87504A2-056E-48C9-93E9-E5D188B0A148}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <v>39</v>
+      </c>
+      <c r="AP1">
+        <v>40</v>
+      </c>
+      <c r="AQ1">
+        <v>41</v>
+      </c>
+      <c r="AR1">
+        <v>42</v>
+      </c>
+      <c r="AS1">
+        <v>43</v>
+      </c>
+      <c r="AT1">
+        <v>44</v>
+      </c>
+      <c r="AU1">
+        <v>45</v>
+      </c>
+      <c r="AV1">
+        <v>46</v>
+      </c>
+      <c r="AW1">
+        <v>47</v>
+      </c>
+      <c r="AX1">
+        <v>48</v>
+      </c>
+      <c r="AY1">
+        <v>49</v>
+      </c>
+      <c r="AZ1">
+        <v>50</v>
+      </c>
+      <c r="BA1">
+        <v>51</v>
+      </c>
+      <c r="BB1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>10230.75</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>51153.75</v>
+      </c>
+      <c r="M2">
+        <v>50977</v>
+      </c>
+      <c r="N2">
+        <v>52059</v>
+      </c>
+      <c r="O2">
+        <v>51046</v>
+      </c>
+      <c r="P2">
+        <v>52064</v>
+      </c>
+      <c r="Q2">
+        <v>51119</v>
+      </c>
+      <c r="R2">
+        <v>50803</v>
+      </c>
+      <c r="S2">
+        <v>50683</v>
+      </c>
+      <c r="T2">
+        <v>51265</v>
+      </c>
+      <c r="U2">
+        <v>50957</v>
+      </c>
+      <c r="V2">
+        <v>51717</v>
+      </c>
+      <c r="W2">
+        <v>50781</v>
+      </c>
+      <c r="X2">
+        <v>51170</v>
+      </c>
+      <c r="Y2">
+        <v>51829</v>
+      </c>
+      <c r="Z2">
+        <v>51690</v>
+      </c>
+      <c r="AA2">
+        <v>50849</v>
+      </c>
+      <c r="AB2">
+        <v>51739</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>50887</v>
+      </c>
+      <c r="AF2">
+        <v>51539</v>
+      </c>
+      <c r="AG2">
+        <v>51246</v>
+      </c>
+      <c r="AH2">
+        <v>52272</v>
+      </c>
+      <c r="AI2">
+        <v>52123</v>
+      </c>
+      <c r="AJ2">
+        <v>50548</v>
+      </c>
+      <c r="AK2">
+        <v>51751</v>
+      </c>
+      <c r="AL2">
+        <v>51108</v>
+      </c>
+      <c r="AM2">
+        <v>51780</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>50517</v>
+      </c>
+      <c r="AP2">
+        <v>50614</v>
+      </c>
+      <c r="AQ2">
+        <v>51812</v>
+      </c>
+      <c r="AR2">
+        <v>50768</v>
+      </c>
+      <c r="AS2">
+        <v>51592</v>
+      </c>
+      <c r="AT2">
+        <v>50700</v>
+      </c>
+      <c r="AU2">
+        <v>52235</v>
+      </c>
+      <c r="AV2">
+        <v>51763</v>
+      </c>
+      <c r="AW2">
+        <v>51030</v>
+      </c>
+      <c r="AX2">
+        <v>50981</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10230.75</v>
-      </c>
-      <c r="C2" s="4">
-        <v>51153.75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>33976.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>169882.5</v>
+      </c>
+      <c r="M3">
+        <v>173082</v>
+      </c>
+      <c r="N3">
+        <v>173923</v>
+      </c>
+      <c r="O3">
+        <v>174112</v>
+      </c>
+      <c r="P3">
+        <v>169691</v>
+      </c>
+      <c r="Q3">
+        <v>168398</v>
+      </c>
+      <c r="R3">
+        <v>168240</v>
+      </c>
+      <c r="S3">
+        <v>174942</v>
+      </c>
+      <c r="T3">
+        <v>172554</v>
+      </c>
+      <c r="U3">
+        <v>174076</v>
+      </c>
+      <c r="V3">
+        <v>169461</v>
+      </c>
+      <c r="W3">
+        <v>169926</v>
+      </c>
+      <c r="X3">
+        <v>169797</v>
+      </c>
+      <c r="Y3">
+        <v>174854</v>
+      </c>
+      <c r="Z3">
+        <v>173050</v>
+      </c>
+      <c r="AA3">
+        <v>170264</v>
+      </c>
+      <c r="AB3">
+        <v>169000</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>172707</v>
+      </c>
+      <c r="AF3">
+        <v>174488</v>
+      </c>
+      <c r="AG3">
+        <v>169451</v>
+      </c>
+      <c r="AH3">
+        <v>168083</v>
+      </c>
+      <c r="AI3">
+        <v>173514</v>
+      </c>
+      <c r="AJ3">
+        <v>173348</v>
+      </c>
+      <c r="AK3">
+        <v>169170</v>
+      </c>
+      <c r="AL3">
+        <v>170282</v>
+      </c>
+      <c r="AM3">
+        <v>172573</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>174469</v>
+      </c>
+      <c r="AP3">
+        <v>172529</v>
+      </c>
+      <c r="AQ3">
+        <v>174784</v>
+      </c>
+      <c r="AR3">
+        <v>168513</v>
+      </c>
+      <c r="AS3">
+        <v>168961</v>
+      </c>
+      <c r="AT3">
+        <v>171328</v>
+      </c>
+      <c r="AU3">
+        <v>172392</v>
+      </c>
+      <c r="AV3">
+        <v>174214</v>
+      </c>
+      <c r="AW3">
+        <v>170752</v>
+      </c>
+      <c r="AX3">
+        <v>172878</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>33976.5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>169882.5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>16988.25</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>84941.25</v>
+      </c>
+      <c r="M4">
+        <v>84623</v>
+      </c>
+      <c r="N4">
+        <v>84538</v>
+      </c>
+      <c r="O4">
+        <v>84876</v>
+      </c>
+      <c r="P4">
+        <v>85207</v>
+      </c>
+      <c r="Q4">
+        <v>83713</v>
+      </c>
+      <c r="R4">
+        <v>83037</v>
+      </c>
+      <c r="S4">
+        <v>83999</v>
+      </c>
+      <c r="T4">
+        <v>83998</v>
+      </c>
+      <c r="U4">
+        <v>84240</v>
+      </c>
+      <c r="V4">
+        <v>84659</v>
+      </c>
+      <c r="W4">
+        <v>84832</v>
+      </c>
+      <c r="X4">
+        <v>85311</v>
+      </c>
+      <c r="Y4">
+        <v>85112</v>
+      </c>
+      <c r="Z4">
+        <v>83630</v>
+      </c>
+      <c r="AA4">
+        <v>84644</v>
+      </c>
+      <c r="AB4">
+        <v>85302</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>85212</v>
+      </c>
+      <c r="AF4">
+        <v>84540</v>
+      </c>
+      <c r="AG4">
+        <v>85068</v>
+      </c>
+      <c r="AH4">
+        <v>84502</v>
+      </c>
+      <c r="AI4">
+        <v>83896</v>
+      </c>
+      <c r="AJ4">
+        <v>84353</v>
+      </c>
+      <c r="AK4">
+        <v>84504</v>
+      </c>
+      <c r="AL4">
+        <v>83653</v>
+      </c>
+      <c r="AM4">
+        <v>83430</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>84940</v>
+      </c>
+      <c r="AP4">
+        <v>85069</v>
+      </c>
+      <c r="AQ4">
+        <v>85325</v>
+      </c>
+      <c r="AR4">
+        <v>83963</v>
+      </c>
+      <c r="AS4">
+        <v>84090</v>
+      </c>
+      <c r="AT4">
+        <v>83240</v>
+      </c>
+      <c r="AU4">
+        <v>84055</v>
+      </c>
+      <c r="AV4">
+        <v>83935</v>
+      </c>
+      <c r="AW4">
+        <v>83706</v>
+      </c>
+      <c r="AX4">
+        <v>83438</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16988.25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>84941.25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23133</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>115665</v>
+      </c>
+      <c r="M5">
+        <v>115440</v>
+      </c>
+      <c r="N5">
+        <v>115917</v>
+      </c>
+      <c r="O5">
+        <v>115111</v>
+      </c>
+      <c r="P5">
+        <v>115672</v>
+      </c>
+      <c r="Q5">
+        <v>115740</v>
+      </c>
+      <c r="R5">
+        <v>115068</v>
+      </c>
+      <c r="S5">
+        <v>115028</v>
+      </c>
+      <c r="T5">
+        <v>115268</v>
+      </c>
+      <c r="U5">
+        <v>115078</v>
+      </c>
+      <c r="V5">
+        <v>115011</v>
+      </c>
+      <c r="W5">
+        <v>115471</v>
+      </c>
+      <c r="X5">
+        <v>115334</v>
+      </c>
+      <c r="Y5">
+        <v>115737</v>
+      </c>
+      <c r="Z5">
+        <v>115127</v>
+      </c>
+      <c r="AA5">
+        <v>115169</v>
+      </c>
+      <c r="AB5">
+        <v>115178</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>115460</v>
+      </c>
+      <c r="AF5">
+        <v>115497</v>
+      </c>
+      <c r="AG5">
+        <v>115394</v>
+      </c>
+      <c r="AH5">
+        <v>115002</v>
+      </c>
+      <c r="AI5">
+        <v>115370</v>
+      </c>
+      <c r="AJ5">
+        <v>115688</v>
+      </c>
+      <c r="AK5">
+        <v>115813</v>
+      </c>
+      <c r="AL5">
+        <v>115545</v>
+      </c>
+      <c r="AM5">
+        <v>115258</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>115473</v>
+      </c>
+      <c r="AP5">
+        <v>115722</v>
+      </c>
+      <c r="AQ5">
+        <v>115268</v>
+      </c>
+      <c r="AR5">
+        <v>115517</v>
+      </c>
+      <c r="AS5">
+        <v>115885</v>
+      </c>
+      <c r="AT5">
+        <v>115363</v>
+      </c>
+      <c r="AU5">
+        <v>115056</v>
+      </c>
+      <c r="AV5">
+        <v>115811</v>
+      </c>
+      <c r="AW5">
+        <v>115334</v>
+      </c>
+      <c r="AX5">
+        <v>115253</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>23133</v>
-      </c>
-      <c r="C5" s="4">
-        <v>115665</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47292</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>236460</v>
+      </c>
+      <c r="M6">
+        <v>236929</v>
+      </c>
+      <c r="N6">
+        <v>235582</v>
+      </c>
+      <c r="O6">
+        <v>235750</v>
+      </c>
+      <c r="P6">
+        <v>235852</v>
+      </c>
+      <c r="Q6">
+        <v>236191</v>
+      </c>
+      <c r="R6">
+        <v>235585</v>
+      </c>
+      <c r="S6">
+        <v>236520</v>
+      </c>
+      <c r="T6">
+        <v>236108</v>
+      </c>
+      <c r="U6">
+        <v>236009</v>
+      </c>
+      <c r="V6">
+        <v>236294</v>
+      </c>
+      <c r="W6">
+        <v>236820</v>
+      </c>
+      <c r="X6">
+        <v>236188</v>
+      </c>
+      <c r="Y6">
+        <v>235468</v>
+      </c>
+      <c r="Z6">
+        <v>235246</v>
+      </c>
+      <c r="AA6">
+        <v>235254</v>
+      </c>
+      <c r="AB6">
+        <v>235056</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>236934</v>
+      </c>
+      <c r="AF6">
+        <v>235331</v>
+      </c>
+      <c r="AG6">
+        <v>235731</v>
+      </c>
+      <c r="AH6">
+        <v>235935</v>
+      </c>
+      <c r="AI6">
+        <v>235217</v>
+      </c>
+      <c r="AJ6">
+        <v>236057</v>
+      </c>
+      <c r="AK6">
+        <v>236644</v>
+      </c>
+      <c r="AL6">
+        <v>235096</v>
+      </c>
+      <c r="AM6">
+        <v>235193</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>236975</v>
+      </c>
+      <c r="AP6">
+        <v>236692</v>
+      </c>
+      <c r="AQ6">
+        <v>236276</v>
+      </c>
+      <c r="AR6">
+        <v>236128</v>
+      </c>
+      <c r="AS6">
+        <v>236907</v>
+      </c>
+      <c r="AT6">
+        <v>236682</v>
+      </c>
+      <c r="AU6">
+        <v>235627</v>
+      </c>
+      <c r="AV6">
+        <v>235172</v>
+      </c>
+      <c r="AW6">
+        <v>235243</v>
+      </c>
+      <c r="AX6">
+        <v>236726</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>47292</v>
-      </c>
-      <c r="C6" s="4">
-        <v>236460</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36400.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>182002.5</v>
+      </c>
+      <c r="M7">
+        <v>181643</v>
+      </c>
+      <c r="N7">
+        <v>181902</v>
+      </c>
+      <c r="O7">
+        <v>182068</v>
+      </c>
+      <c r="P7">
+        <v>181611</v>
+      </c>
+      <c r="Q7">
+        <v>182024</v>
+      </c>
+      <c r="R7">
+        <v>182318</v>
+      </c>
+      <c r="S7">
+        <v>182150</v>
+      </c>
+      <c r="T7">
+        <v>181816</v>
+      </c>
+      <c r="U7">
+        <v>181921</v>
+      </c>
+      <c r="V7">
+        <v>181545</v>
+      </c>
+      <c r="W7">
+        <v>181508</v>
+      </c>
+      <c r="X7">
+        <v>181286</v>
+      </c>
+      <c r="Y7">
+        <v>181835</v>
+      </c>
+      <c r="Z7">
+        <v>181172</v>
+      </c>
+      <c r="AA7">
+        <v>182212</v>
+      </c>
+      <c r="AB7">
+        <v>181103</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>182279</v>
+      </c>
+      <c r="AF7">
+        <v>182381</v>
+      </c>
+      <c r="AG7">
+        <v>182426</v>
+      </c>
+      <c r="AH7">
+        <v>181739</v>
+      </c>
+      <c r="AI7">
+        <v>182099</v>
+      </c>
+      <c r="AJ7">
+        <v>182378</v>
+      </c>
+      <c r="AK7">
+        <v>181624</v>
+      </c>
+      <c r="AL7">
+        <v>181654</v>
+      </c>
+      <c r="AM7">
+        <v>181176</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>181897</v>
+      </c>
+      <c r="AP7">
+        <v>181985</v>
+      </c>
+      <c r="AQ7">
+        <v>181691</v>
+      </c>
+      <c r="AR7">
+        <v>181267</v>
+      </c>
+      <c r="AS7">
+        <v>182252</v>
+      </c>
+      <c r="AT7">
+        <v>181863</v>
+      </c>
+      <c r="AU7">
+        <v>181119</v>
+      </c>
+      <c r="AV7">
+        <v>181289</v>
+      </c>
+      <c r="AW7">
+        <v>182080</v>
+      </c>
+      <c r="AX7">
+        <v>181338</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>36400.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>182002.5</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>51846</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>259230</v>
+      </c>
+      <c r="M8">
+        <v>259739</v>
+      </c>
+      <c r="N8">
+        <v>259379</v>
+      </c>
+      <c r="O8">
+        <v>258590</v>
+      </c>
+      <c r="P8">
+        <v>259225</v>
+      </c>
+      <c r="Q8">
+        <v>258839</v>
+      </c>
+      <c r="R8">
+        <v>259024</v>
+      </c>
+      <c r="S8">
+        <v>258859</v>
+      </c>
+      <c r="T8">
+        <v>259356</v>
+      </c>
+      <c r="U8">
+        <v>258515</v>
+      </c>
+      <c r="V8">
+        <v>259537</v>
+      </c>
+      <c r="W8">
+        <v>259154</v>
+      </c>
+      <c r="X8">
+        <v>258974</v>
+      </c>
+      <c r="Y8">
+        <v>258595</v>
+      </c>
+      <c r="Z8">
+        <v>259678</v>
+      </c>
+      <c r="AA8">
+        <v>259036</v>
+      </c>
+      <c r="AB8">
+        <v>259280</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>259613</v>
+      </c>
+      <c r="AF8">
+        <v>259612</v>
+      </c>
+      <c r="AG8">
+        <v>259032</v>
+      </c>
+      <c r="AH8">
+        <v>259287</v>
+      </c>
+      <c r="AI8">
+        <v>259698</v>
+      </c>
+      <c r="AJ8">
+        <v>259100</v>
+      </c>
+      <c r="AK8">
+        <v>258595</v>
+      </c>
+      <c r="AL8">
+        <v>259011</v>
+      </c>
+      <c r="AM8">
+        <v>259580</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>259516</v>
+      </c>
+      <c r="AP8">
+        <v>259545</v>
+      </c>
+      <c r="AQ8">
+        <v>258869</v>
+      </c>
+      <c r="AR8">
+        <v>259743</v>
+      </c>
+      <c r="AS8">
+        <v>259632</v>
+      </c>
+      <c r="AT8">
+        <v>259737</v>
+      </c>
+      <c r="AU8">
+        <v>258964</v>
+      </c>
+      <c r="AV8">
+        <v>259485</v>
+      </c>
+      <c r="AW8">
+        <v>258753</v>
+      </c>
+      <c r="AX8">
+        <v>259402</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>51846</v>
-      </c>
-      <c r="C8" s="4">
-        <v>259230</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>49109.25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>245546.25</v>
+      </c>
+      <c r="M9">
+        <v>244058</v>
+      </c>
+      <c r="N9">
+        <v>245986</v>
+      </c>
+      <c r="O9">
+        <v>244538</v>
+      </c>
+      <c r="P9">
+        <v>244322</v>
+      </c>
+      <c r="Q9">
+        <v>244636</v>
+      </c>
+      <c r="R9">
+        <v>245892</v>
+      </c>
+      <c r="S9">
+        <v>244797</v>
+      </c>
+      <c r="T9">
+        <v>245739</v>
+      </c>
+      <c r="U9">
+        <v>244267</v>
+      </c>
+      <c r="V9">
+        <v>244365</v>
+      </c>
+      <c r="W9">
+        <v>245082</v>
+      </c>
+      <c r="X9">
+        <v>244144</v>
+      </c>
+      <c r="Y9">
+        <v>244840</v>
+      </c>
+      <c r="Z9">
+        <v>245409</v>
+      </c>
+      <c r="AA9">
+        <v>244838</v>
+      </c>
+      <c r="AB9">
+        <v>244914</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>244730</v>
+      </c>
+      <c r="AF9">
+        <v>244444</v>
+      </c>
+      <c r="AG9">
+        <v>245988</v>
+      </c>
+      <c r="AH9">
+        <v>244426</v>
+      </c>
+      <c r="AI9">
+        <v>244287</v>
+      </c>
+      <c r="AJ9">
+        <v>244543</v>
+      </c>
+      <c r="AK9">
+        <v>245095</v>
+      </c>
+      <c r="AL9">
+        <v>244257</v>
+      </c>
+      <c r="AM9">
+        <v>245447</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>244972</v>
+      </c>
+      <c r="AP9">
+        <v>244781</v>
+      </c>
+      <c r="AQ9">
+        <v>245949</v>
+      </c>
+      <c r="AR9">
+        <v>245464</v>
+      </c>
+      <c r="AS9">
+        <v>244348</v>
+      </c>
+      <c r="AT9">
+        <v>245064</v>
+      </c>
+      <c r="AU9">
+        <v>245351</v>
+      </c>
+      <c r="AV9">
+        <v>245327</v>
+      </c>
+      <c r="AW9">
+        <v>245144</v>
+      </c>
+      <c r="AX9">
+        <v>245524</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>49109.25</v>
-      </c>
-      <c r="C9" s="4">
-        <v>245546.25</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>31101</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>155505</v>
+      </c>
+      <c r="M10">
+        <v>155425</v>
+      </c>
+      <c r="N10">
+        <v>155726</v>
+      </c>
+      <c r="O10">
+        <v>155830</v>
+      </c>
+      <c r="P10">
+        <v>154304</v>
+      </c>
+      <c r="Q10">
+        <v>154459</v>
+      </c>
+      <c r="R10">
+        <v>155004</v>
+      </c>
+      <c r="S10">
+        <v>154993</v>
+      </c>
+      <c r="T10">
+        <v>154395</v>
+      </c>
+      <c r="U10">
+        <v>154318</v>
+      </c>
+      <c r="V10">
+        <v>155046</v>
+      </c>
+      <c r="W10">
+        <v>154584</v>
+      </c>
+      <c r="X10">
+        <v>154848</v>
+      </c>
+      <c r="Y10">
+        <v>154679</v>
+      </c>
+      <c r="Z10">
+        <v>154636</v>
+      </c>
+      <c r="AA10">
+        <v>154636</v>
+      </c>
+      <c r="AB10">
+        <v>154443</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>155595</v>
+      </c>
+      <c r="AF10">
+        <v>154223</v>
+      </c>
+      <c r="AG10">
+        <v>155418</v>
+      </c>
+      <c r="AH10">
+        <v>155047</v>
+      </c>
+      <c r="AI10">
+        <v>154268</v>
+      </c>
+      <c r="AJ10">
+        <v>155168</v>
+      </c>
+      <c r="AK10">
+        <v>155095</v>
+      </c>
+      <c r="AL10">
+        <v>155803</v>
+      </c>
+      <c r="AM10">
+        <v>155752</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>154290</v>
+      </c>
+      <c r="AP10">
+        <v>154475</v>
+      </c>
+      <c r="AQ10">
+        <v>154059</v>
+      </c>
+      <c r="AR10">
+        <v>155804</v>
+      </c>
+      <c r="AS10">
+        <v>154048</v>
+      </c>
+      <c r="AT10">
+        <v>155443</v>
+      </c>
+      <c r="AU10">
+        <v>154140</v>
+      </c>
+      <c r="AV10">
+        <v>154362</v>
+      </c>
+      <c r="AW10">
+        <v>155085</v>
+      </c>
+      <c r="AX10">
+        <v>154232</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>31101</v>
-      </c>
-      <c r="C10" s="4">
-        <v>259230</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>29856.75</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>149283.75</v>
+      </c>
+      <c r="M11">
+        <v>149192</v>
+      </c>
+      <c r="N11">
+        <v>148448</v>
+      </c>
+      <c r="O11">
+        <v>148389</v>
+      </c>
+      <c r="P11">
+        <v>148706</v>
+      </c>
+      <c r="Q11">
+        <v>148552</v>
+      </c>
+      <c r="R11">
+        <v>149788</v>
+      </c>
+      <c r="S11">
+        <v>149199</v>
+      </c>
+      <c r="T11">
+        <v>148597</v>
+      </c>
+      <c r="U11">
+        <v>148846</v>
+      </c>
+      <c r="V11">
+        <v>148146</v>
+      </c>
+      <c r="W11">
+        <v>148695</v>
+      </c>
+      <c r="X11">
+        <v>149776</v>
+      </c>
+      <c r="Y11">
+        <v>149296</v>
+      </c>
+      <c r="Z11">
+        <v>148739</v>
+      </c>
+      <c r="AA11">
+        <v>149196</v>
+      </c>
+      <c r="AB11">
+        <v>149324</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>148605</v>
+      </c>
+      <c r="AF11">
+        <v>148276</v>
+      </c>
+      <c r="AG11">
+        <v>148338</v>
+      </c>
+      <c r="AH11">
+        <v>148893</v>
+      </c>
+      <c r="AI11">
+        <v>149766</v>
+      </c>
+      <c r="AJ11">
+        <v>149151</v>
+      </c>
+      <c r="AK11">
+        <v>149705</v>
+      </c>
+      <c r="AL11">
+        <v>148169</v>
+      </c>
+      <c r="AM11">
+        <v>149368</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>149408</v>
+      </c>
+      <c r="AP11">
+        <v>148006</v>
+      </c>
+      <c r="AQ11">
+        <v>148718</v>
+      </c>
+      <c r="AR11">
+        <v>148791</v>
+      </c>
+      <c r="AS11">
+        <v>148952</v>
+      </c>
+      <c r="AT11">
+        <v>149680</v>
+      </c>
+      <c r="AU11">
+        <v>148220</v>
+      </c>
+      <c r="AV11">
+        <v>149573</v>
+      </c>
+      <c r="AW11">
+        <v>148257</v>
+      </c>
+      <c r="AX11">
+        <v>148136</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>29856.75</v>
-      </c>
-      <c r="C11" s="4">
-        <v>149283.75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4385.25</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>21926.25</v>
+      </c>
+      <c r="M12">
+        <v>21145</v>
+      </c>
+      <c r="N12">
+        <v>21624</v>
+      </c>
+      <c r="O12">
+        <v>21159</v>
+      </c>
+      <c r="P12">
+        <v>21297</v>
+      </c>
+      <c r="Q12">
+        <v>22014</v>
+      </c>
+      <c r="R12">
+        <v>22005</v>
+      </c>
+      <c r="S12">
+        <v>21045</v>
+      </c>
+      <c r="T12">
+        <v>21805</v>
+      </c>
+      <c r="U12">
+        <v>22495</v>
+      </c>
+      <c r="V12">
+        <v>21402</v>
+      </c>
+      <c r="W12">
+        <v>21755</v>
+      </c>
+      <c r="X12">
+        <v>21839</v>
+      </c>
+      <c r="Y12">
+        <v>22016</v>
+      </c>
+      <c r="Z12">
+        <v>22016</v>
+      </c>
+      <c r="AA12">
+        <v>21478</v>
+      </c>
+      <c r="AB12">
+        <v>21687</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>21296</v>
+      </c>
+      <c r="AF12">
+        <v>22261</v>
+      </c>
+      <c r="AG12">
+        <v>21535</v>
+      </c>
+      <c r="AH12">
+        <v>21891</v>
+      </c>
+      <c r="AI12">
+        <v>21020</v>
+      </c>
+      <c r="AJ12">
+        <v>22040</v>
+      </c>
+      <c r="AK12">
+        <v>21704</v>
+      </c>
+      <c r="AL12">
+        <v>22486</v>
+      </c>
+      <c r="AM12">
+        <v>21535</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>21027</v>
+      </c>
+      <c r="AP12">
+        <v>22018</v>
+      </c>
+      <c r="AQ12">
+        <v>21560</v>
+      </c>
+      <c r="AR12">
+        <v>22337</v>
+      </c>
+      <c r="AS12">
+        <v>21743</v>
+      </c>
+      <c r="AT12">
+        <v>21568</v>
+      </c>
+      <c r="AU12">
+        <v>21501</v>
+      </c>
+      <c r="AV12">
+        <v>21311</v>
+      </c>
+      <c r="AW12">
+        <v>22121</v>
+      </c>
+      <c r="AX12">
+        <v>22049</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4385.25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>21926.25</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6708.75</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>33543.75</v>
+      </c>
+      <c r="M13">
+        <v>33744</v>
+      </c>
+      <c r="N13">
+        <v>33524</v>
+      </c>
+      <c r="O13">
+        <v>33569</v>
+      </c>
+      <c r="P13">
+        <v>33510</v>
+      </c>
+      <c r="Q13">
+        <v>33675</v>
+      </c>
+      <c r="R13">
+        <v>33710</v>
+      </c>
+      <c r="S13">
+        <v>33243</v>
+      </c>
+      <c r="T13">
+        <v>33444</v>
+      </c>
+      <c r="U13">
+        <v>33734</v>
+      </c>
+      <c r="V13">
+        <v>33078</v>
+      </c>
+      <c r="W13">
+        <v>33287</v>
+      </c>
+      <c r="X13">
+        <v>33409</v>
+      </c>
+      <c r="Y13">
+        <v>33002</v>
+      </c>
+      <c r="Z13">
+        <v>33082</v>
+      </c>
+      <c r="AA13">
+        <v>33086</v>
+      </c>
+      <c r="AB13">
+        <v>33840</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>33691</v>
+      </c>
+      <c r="AF13">
+        <v>33466</v>
+      </c>
+      <c r="AG13">
+        <v>33888</v>
+      </c>
+      <c r="AH13">
+        <v>33273</v>
+      </c>
+      <c r="AI13">
+        <v>33732</v>
+      </c>
+      <c r="AJ13">
+        <v>33014</v>
+      </c>
+      <c r="AK13">
+        <v>33445</v>
+      </c>
+      <c r="AL13">
+        <v>33248</v>
+      </c>
+      <c r="AM13">
+        <v>33762</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>33344</v>
+      </c>
+      <c r="AP13">
+        <v>33211</v>
+      </c>
+      <c r="AQ13">
+        <v>33201</v>
+      </c>
+      <c r="AR13">
+        <v>33736</v>
+      </c>
+      <c r="AS13">
+        <v>33649</v>
+      </c>
+      <c r="AT13">
+        <v>33565</v>
+      </c>
+      <c r="AU13">
+        <v>33073</v>
+      </c>
+      <c r="AV13">
+        <v>33750</v>
+      </c>
+      <c r="AW13">
+        <v>33093</v>
+      </c>
+      <c r="AX13">
+        <v>33078</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6708.75</v>
-      </c>
-      <c r="C13" s="4">
-        <v>33543.75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>141220.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>706102.5</v>
+      </c>
+      <c r="M14">
+        <v>705632</v>
+      </c>
+      <c r="N14">
+        <v>705468</v>
+      </c>
+      <c r="O14">
+        <v>705602</v>
+      </c>
+      <c r="P14">
+        <v>705199</v>
+      </c>
+      <c r="Q14">
+        <v>705237</v>
+      </c>
+      <c r="R14">
+        <v>705795</v>
+      </c>
+      <c r="S14">
+        <v>705089</v>
+      </c>
+      <c r="T14">
+        <v>706428</v>
+      </c>
+      <c r="U14">
+        <v>705678</v>
+      </c>
+      <c r="V14">
+        <v>706278</v>
+      </c>
+      <c r="W14">
+        <v>705321</v>
+      </c>
+      <c r="X14">
+        <v>705402</v>
+      </c>
+      <c r="Y14">
+        <v>706440</v>
+      </c>
+      <c r="Z14">
+        <v>705955</v>
+      </c>
+      <c r="AA14">
+        <v>705640</v>
+      </c>
+      <c r="AB14">
+        <v>706112</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>705901</v>
+      </c>
+      <c r="AF14">
+        <v>705806</v>
+      </c>
+      <c r="AG14">
+        <v>705549</v>
+      </c>
+      <c r="AH14">
+        <v>705183</v>
+      </c>
+      <c r="AI14">
+        <v>706408</v>
+      </c>
+      <c r="AJ14">
+        <v>706329</v>
+      </c>
+      <c r="AK14">
+        <v>705395</v>
+      </c>
+      <c r="AL14">
+        <v>705084</v>
+      </c>
+      <c r="AM14">
+        <v>705067</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>705614</v>
+      </c>
+      <c r="AP14">
+        <v>706441</v>
+      </c>
+      <c r="AQ14">
+        <v>705868</v>
+      </c>
+      <c r="AR14">
+        <v>705324</v>
+      </c>
+      <c r="AS14">
+        <v>705175</v>
+      </c>
+      <c r="AT14">
+        <v>705528</v>
+      </c>
+      <c r="AU14">
+        <v>706394</v>
+      </c>
+      <c r="AV14">
+        <v>705423</v>
+      </c>
+      <c r="AW14">
+        <v>705334</v>
+      </c>
+      <c r="AX14">
+        <v>706197</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>141220.5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>706102.5</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15780.75</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>78903.75</v>
+      </c>
+      <c r="M15">
+        <v>78362</v>
+      </c>
+      <c r="N15">
+        <v>77092</v>
+      </c>
+      <c r="O15">
+        <v>79432</v>
+      </c>
+      <c r="P15">
+        <v>78686</v>
+      </c>
+      <c r="Q15">
+        <v>77750</v>
+      </c>
+      <c r="R15">
+        <v>77780</v>
+      </c>
+      <c r="S15">
+        <v>77352</v>
+      </c>
+      <c r="T15">
+        <v>78269</v>
+      </c>
+      <c r="U15">
+        <v>77865</v>
+      </c>
+      <c r="V15">
+        <v>78811</v>
+      </c>
+      <c r="W15">
+        <v>79095</v>
+      </c>
+      <c r="X15">
+        <v>78059</v>
+      </c>
+      <c r="Y15">
+        <v>77950</v>
+      </c>
+      <c r="Z15">
+        <v>78457</v>
+      </c>
+      <c r="AA15">
+        <v>77239</v>
+      </c>
+      <c r="AB15">
+        <v>77244</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>77395</v>
+      </c>
+      <c r="AF15">
+        <v>77439</v>
+      </c>
+      <c r="AG15">
+        <v>78429</v>
+      </c>
+      <c r="AH15">
+        <v>77590</v>
+      </c>
+      <c r="AI15">
+        <v>78719</v>
+      </c>
+      <c r="AJ15">
+        <v>78434</v>
+      </c>
+      <c r="AK15">
+        <v>77374</v>
+      </c>
+      <c r="AL15">
+        <v>78701</v>
+      </c>
+      <c r="AM15">
+        <v>77924</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>78770</v>
+      </c>
+      <c r="AP15">
+        <v>78860</v>
+      </c>
+      <c r="AQ15">
+        <v>77217</v>
+      </c>
+      <c r="AR15">
+        <v>78371</v>
+      </c>
+      <c r="AS15">
+        <v>78752</v>
+      </c>
+      <c r="AT15">
+        <v>77029</v>
+      </c>
+      <c r="AU15">
+        <v>78935</v>
+      </c>
+      <c r="AV15">
+        <v>77648</v>
+      </c>
+      <c r="AW15">
+        <v>77436</v>
+      </c>
+      <c r="AX15">
+        <v>78052</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15780.75</v>
-      </c>
-      <c r="C15" s="4">
-        <v>78903.75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7161.5249999999996</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>35807.625</v>
+      </c>
+      <c r="M16">
+        <v>36285</v>
+      </c>
+      <c r="N16">
+        <v>35835</v>
+      </c>
+      <c r="O16">
+        <v>34588</v>
+      </c>
+      <c r="P16">
+        <v>35468</v>
+      </c>
+      <c r="Q16">
+        <v>36263</v>
+      </c>
+      <c r="R16">
+        <v>34563</v>
+      </c>
+      <c r="S16">
+        <v>36351</v>
+      </c>
+      <c r="T16">
+        <v>35037</v>
+      </c>
+      <c r="U16">
+        <v>35652</v>
+      </c>
+      <c r="V16">
+        <v>35109</v>
+      </c>
+      <c r="W16">
+        <v>36402</v>
+      </c>
+      <c r="X16">
+        <v>35738</v>
+      </c>
+      <c r="Y16">
+        <v>34812</v>
+      </c>
+      <c r="Z16">
+        <v>35397</v>
+      </c>
+      <c r="AA16">
+        <v>35378</v>
+      </c>
+      <c r="AB16">
+        <v>35888</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>35946</v>
+      </c>
+      <c r="AF16">
+        <v>34544</v>
+      </c>
+      <c r="AG16">
+        <v>34941</v>
+      </c>
+      <c r="AH16">
+        <v>35299</v>
+      </c>
+      <c r="AI16">
+        <v>35665</v>
+      </c>
+      <c r="AJ16">
+        <v>35615</v>
+      </c>
+      <c r="AK16">
+        <v>35985</v>
+      </c>
+      <c r="AL16">
+        <v>35428</v>
+      </c>
+      <c r="AM16">
+        <v>35040</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>35628</v>
+      </c>
+      <c r="AP16">
+        <v>35789</v>
+      </c>
+      <c r="AQ16">
+        <v>35641</v>
+      </c>
+      <c r="AR16">
+        <v>34552</v>
+      </c>
+      <c r="AS16">
+        <v>35142</v>
+      </c>
+      <c r="AT16">
+        <v>35784</v>
+      </c>
+      <c r="AU16">
+        <v>35810</v>
+      </c>
+      <c r="AV16">
+        <v>34588</v>
+      </c>
+      <c r="AW16">
+        <v>35029</v>
+      </c>
+      <c r="AX16">
+        <v>36356</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7161.5249999999996</v>
-      </c>
-      <c r="C16" s="4">
-        <v>35807.625</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>19631.25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>98156.25</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f>SUM(B2:B17)</f>
-        <v>524822.02500000002</v>
+      <c r="M17">
+        <v>97043</v>
+      </c>
+      <c r="N17">
+        <v>97453</v>
+      </c>
+      <c r="O17">
+        <v>97036</v>
+      </c>
+      <c r="P17">
+        <v>98503</v>
+      </c>
+      <c r="Q17">
+        <v>97450</v>
+      </c>
+      <c r="R17">
+        <v>97258</v>
+      </c>
+      <c r="S17">
+        <v>98114</v>
+      </c>
+      <c r="T17">
+        <v>98496</v>
+      </c>
+      <c r="U17">
+        <v>97869</v>
+      </c>
+      <c r="V17">
+        <v>97433</v>
+      </c>
+      <c r="W17">
+        <v>98476</v>
+      </c>
+      <c r="X17">
+        <v>98339</v>
+      </c>
+      <c r="Y17">
+        <v>97251</v>
+      </c>
+      <c r="Z17">
+        <v>97567</v>
+      </c>
+      <c r="AA17">
+        <v>97065</v>
+      </c>
+      <c r="AB17">
+        <v>97545</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>97750</v>
+      </c>
+      <c r="AF17">
+        <v>97126</v>
+      </c>
+      <c r="AG17">
+        <v>98471</v>
+      </c>
+      <c r="AH17">
+        <v>98113</v>
+      </c>
+      <c r="AI17">
+        <v>97513</v>
+      </c>
+      <c r="AJ17">
+        <v>98312</v>
+      </c>
+      <c r="AK17">
+        <v>97605</v>
+      </c>
+      <c r="AL17">
+        <v>97037</v>
+      </c>
+      <c r="AM17">
+        <v>97230</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>98054</v>
+      </c>
+      <c r="AP17">
+        <v>97963</v>
+      </c>
+      <c r="AQ17">
+        <v>97451</v>
+      </c>
+      <c r="AR17">
+        <v>97280</v>
+      </c>
+      <c r="AS17">
+        <v>97733</v>
+      </c>
+      <c r="AT17">
+        <v>98364</v>
+      </c>
+      <c r="AU17">
+        <v>97560</v>
+      </c>
+      <c r="AV17">
+        <v>97828</v>
+      </c>
+      <c r="AW17">
+        <v>97562</v>
+      </c>
+      <c r="AX17">
+        <v>97177</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>